--- a/MailProject/test.xlsx
+++ b/MailProject/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDBLAB\Desktop\Crawling\MailProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003998B5-2BB0-4C52-ADAE-2BF78FBB5803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83A9B9-2AAC-4D54-AD57-F62ACF967580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="2430" windowWidth="27740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7330" yWindow="2280" windowWidth="23550" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>전공</t>
   </si>
@@ -41,21 +41,25 @@
   </si>
   <si>
     <t>051-629-4612</t>
+  </si>
+  <si>
+    <t>이채은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이이이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ioo22@pukyong.ac.kr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>k1hyxn01@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>dlcodms_9@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이채은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이이이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -496,13 +500,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -513,17 +517,20 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
@@ -841,8 +848,9 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{B6EC17F3-9CDB-4AEC-BF91-EE3DF13E9343}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{8265D1E0-D636-4B84-A9E0-48FB154251C1}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EB617E16-8DF7-47C3-990F-9AA5610D27E6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>